--- a/backend/results/Munjal/summary_table.xlsx
+++ b/backend/results/Munjal/summary_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Parameters</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Absolute Change (%)</t>
   </si>
   <si>
-    <t>permeability</t>
+    <t>gcs</t>
   </si>
   <si>
     <t>compactibility</t>
@@ -31,13 +31,7 @@
     <t>moisture</t>
   </si>
   <si>
-    <t>volatile_matter</t>
-  </si>
-  <si>
     <t>active_clay</t>
-  </si>
-  <si>
-    <t>loi</t>
   </si>
 </sst>
 </file>
@@ -395,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.45</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.82</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,23 +432,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
         <v>0.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/results/Munjal/summary_table.xlsx
+++ b/backend/results/Munjal/summary_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Parameters</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Absolute Change (%)</t>
   </si>
   <si>
-    <t>gcs</t>
+    <t>permeability</t>
   </si>
   <si>
     <t>compactibility</t>
@@ -31,7 +31,13 @@
     <t>moisture</t>
   </si>
   <si>
+    <t>volatile_matter</t>
+  </si>
+  <si>
     <t>active_clay</t>
+  </si>
+  <si>
+    <t>loi</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.43</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.35</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +438,23 @@
         <v>5</v>
       </c>
       <c r="B5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/results/Munjal/summary_table.xlsx
+++ b/backend/results/Munjal/summary_table.xlsx
@@ -22,16 +22,16 @@
     <t>Absolute Change (%)</t>
   </si>
   <si>
+    <t>volatile_matter</t>
+  </si>
+  <si>
     <t>permeability</t>
   </si>
   <si>
+    <t>moisture</t>
+  </si>
+  <si>
     <t>compactibility</t>
-  </si>
-  <si>
-    <t>moisture</t>
-  </si>
-  <si>
-    <t>volatile_matter</t>
   </si>
   <si>
     <t>active_clay</t>
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/backend/results/Munjal/summary_table.xlsx
+++ b/backend/results/Munjal/summary_table.xlsx
@@ -22,16 +22,16 @@
     <t>Absolute Change (%)</t>
   </si>
   <si>
+    <t>permeability</t>
+  </si>
+  <si>
+    <t>compactibility</t>
+  </si>
+  <si>
+    <t>moisture</t>
+  </si>
+  <si>
     <t>volatile_matter</t>
-  </si>
-  <si>
-    <t>permeability</t>
-  </si>
-  <si>
-    <t>moisture</t>
-  </si>
-  <si>
-    <t>compactibility</t>
   </si>
   <si>
     <t>active_clay</t>
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
